--- a/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.253622013725146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.434952275149088</v>
+        <v>9.434952275149101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1653710589836237</v>
@@ -649,7 +649,7 @@
         <v>0.07603426237611148</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1191807713479974</v>
+        <v>0.1191807713479975</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.813138915910915</v>
+        <v>8.164144459349588</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.643233800864801</v>
+        <v>6.547943149789881</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.908765897764466</v>
+        <v>2.932427241347815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.531643265824079</v>
+        <v>5.432777289565795</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1169133911302022</v>
+        <v>0.1092550618211536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08033112358898642</v>
+        <v>0.08007224123374025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03462259994827218</v>
+        <v>0.03469027912718169</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0674885651914304</v>
+        <v>0.06574745636209785</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.81355006966005</v>
+        <v>15.47595457980485</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.85648522206946</v>
+        <v>12.66874385517108</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.18415820197927</v>
+        <v>9.602969645708177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.9678771223378</v>
+        <v>13.71029768464722</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2267767859209977</v>
+        <v>0.2187141515757466</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1658796282786025</v>
+        <v>0.1631732619579096</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1285306125777779</v>
+        <v>0.1199225023731496</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.187354026235109</v>
+        <v>0.1792631487825442</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.94459221423176</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.697915338338646</v>
+        <v>8.697915338338657</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2171351967703663</v>
@@ -749,7 +749,7 @@
         <v>0.09483548674319285</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1325036997920833</v>
+        <v>0.1325036997920835</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.458904824993002</v>
+        <v>9.468856077492768</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.145934750404893</v>
+        <v>6.093932165969309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.334749422408962</v>
+        <v>4.306626226350061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.59583390307878</v>
+        <v>5.518152566077719</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1544651913792526</v>
+        <v>0.154476966881715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08783865419297641</v>
+        <v>0.08707428270899811</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05726563132020494</v>
+        <v>0.05721175740259931</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08313557496020356</v>
+        <v>0.08216263198054931</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.26132750570417</v>
+        <v>15.90306031618996</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.34210781835479</v>
+        <v>12.13841880268595</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.442891738956503</v>
+        <v>9.704400406793493</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.5682505863328</v>
+        <v>11.62220200446895</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2792289042822965</v>
+        <v>0.2784465744669704</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1852076876415034</v>
+        <v>0.1813595803533259</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1313453741364221</v>
+        <v>0.1349654814194116</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1835999919978956</v>
+        <v>0.1833260980764159</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.373644661616328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.475962474143881</v>
+        <v>5.475962474143891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2951103744882101</v>
@@ -849,7 +849,7 @@
         <v>0.09569879466878034</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.08367078142573217</v>
+        <v>0.08367078142573237</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.537823561989102</v>
+        <v>8.571512177618144</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.685042248738255</v>
+        <v>7.763145543460051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6380450377291799</v>
+        <v>0.6903498505132815</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5064582963895439</v>
+        <v>0.9050571653264864</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1694477775554881</v>
+        <v>0.1518016025123398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1146224825026427</v>
+        <v>0.1166773550662226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.00906591185600346</v>
+        <v>0.009336399619916634</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.007109983972671517</v>
+        <v>0.01314267554872558</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.2347373146646</v>
+        <v>21.50386211026357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.28049375518733</v>
+        <v>20.69625481326932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.31272118697692</v>
+        <v>12.129686260689</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.74819162594357</v>
+        <v>10.60868328495256</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4420540781179326</v>
+        <v>0.4307153103761134</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3391666300692284</v>
+        <v>0.3496417723419626</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1921224734383445</v>
+        <v>0.1896942947297285</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1732795275617036</v>
+        <v>0.1719908760374638</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.83185351922296</v>
+        <v>12.00893050588915</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.92636626645837</v>
+        <v>9.006933786376173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.985116044536277</v>
+        <v>5.159013476237517</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.799950374411868</v>
+        <v>6.981968928952567</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1840231646598586</v>
+        <v>0.189457526497872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1243979605949402</v>
+        <v>0.1247244901553369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06586126375633876</v>
+        <v>0.06851098292938433</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09878728418807588</v>
+        <v>0.1020259655607371</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.3438199574887</v>
+        <v>16.43145729862468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.34880735031711</v>
+        <v>13.40081006877764</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.172701339156172</v>
+        <v>9.28575041634824</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.4409853270573</v>
+        <v>11.23944232701256</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2674290957304122</v>
+        <v>0.2684266740968472</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1918371258382339</v>
+        <v>0.1917679984868709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1262193322370078</v>
+        <v>0.1266365294902875</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1738569352437958</v>
+        <v>0.1705625791942487</v>
       </c>
     </row>
     <row r="16">
